--- a/pred_ohlcv/54_21/2019-10-25 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 ORBS ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>855121.9522000002</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>955121.9522000002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>955111.9522000002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1021196.2015</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -834,7 +834,7 @@
         <v>965453.0204000002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>769650.5576000002</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>814543.1382000002</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>727079.7779000001</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>833052.2580000001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1364504.9186</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1364504.9186</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1364504.9186</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1438402.8259</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1473172.9296</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1471030.8043</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1471030.8043</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1469795.9967</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1353364.6607</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>2309237.092352713</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>2309152.019052714</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>2351885.019052714</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-25 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 ORBS ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>855121.9522000002</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>955121.9522000002</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>955111.9522000002</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1021196.2015</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -834,7 +834,7 @@
         <v>965453.0204000002</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>769650.5576000002</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>814543.1382000002</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>661023.1382000002</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>727079.7779000001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>833052.2580000001</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1364504.9186</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1364504.9186</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1364504.9186</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1438402.8259</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1494898.4367</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1494898.4367</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1467153.4367</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1467153.4367</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1397401.3652</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1401891.3652</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1401891.3652</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1392395.9903</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1388205.9903</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1471030.8043</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1471030.8043</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1471030.8043</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1469795.9967</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1353364.6607</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1353364.6607</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>2159794.460852713</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>2309237.092352713</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>2309152.019052714</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>2351885.019052714</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
